--- a/execution_times/execution_times.xlsx
+++ b/execution_times/execution_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/Own/Papers_and_Projects/comparison_ArchRec_tools/GitHub_SARbenchmarks/execution_times/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28225F55-DBD6-AC44-A29D-0929F482ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D49E84C-FF96-BE48-9F0E-3B2228439872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{746FC9D4-0356-CA45-911D-10A18F4D8EE8}"/>
+    <workbookView xWindow="18080" yWindow="500" windowWidth="20320" windowHeight="19640" xr2:uid="{746FC9D4-0356-CA45-911D-10A18F4D8EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,35 +262,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -299,8 +277,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,17 +628,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -670,38 +670,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="14">
+      <c r="B3" s="18"/>
+      <c r="C3" s="6">
         <v>9</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="7">
         <v>17</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="7">
         <v>10</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="7">
         <v>5</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="7">
         <v>17</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="7">
         <v>13</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="7">
         <v>17</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
@@ -716,13 +716,25 @@
       <c r="E4">
         <v>16.3</v>
       </c>
+      <c r="F4">
+        <v>505</v>
+      </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="H4">
+        <v>2.8</v>
+      </c>
+      <c r="I4">
+        <v>0.44</v>
+      </c>
+      <c r="J4">
+        <v>0.7</v>
+      </c>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -735,13 +747,25 @@
       <c r="E5">
         <v>14.2</v>
       </c>
+      <c r="F5">
+        <v>519</v>
+      </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="H5">
+        <v>2.8</v>
+      </c>
+      <c r="I5">
+        <v>0.43</v>
+      </c>
+      <c r="J5">
+        <v>0.7</v>
+      </c>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -754,13 +778,25 @@
       <c r="E6">
         <v>13.4</v>
       </c>
+      <c r="F6">
+        <v>511</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="H6">
+        <v>2.8</v>
+      </c>
+      <c r="I6">
+        <v>0.45</v>
+      </c>
+      <c r="J6">
+        <v>0.68</v>
+      </c>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -773,13 +809,25 @@
       <c r="E7">
         <v>13.2</v>
       </c>
+      <c r="F7">
+        <v>517</v>
+      </c>
       <c r="G7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K7" s="17"/>
+      <c r="H7">
+        <v>2.8</v>
+      </c>
+      <c r="I7">
+        <v>0.43</v>
+      </c>
+      <c r="J7">
+        <v>0.68</v>
+      </c>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -792,13 +840,25 @@
       <c r="E8">
         <v>13.4</v>
       </c>
+      <c r="F8">
+        <v>1441</v>
+      </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="H8">
+        <v>2.8</v>
+      </c>
+      <c r="I8">
+        <v>0.44</v>
+      </c>
+      <c r="J8">
+        <v>0.67</v>
+      </c>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -811,13 +871,25 @@
       <c r="E9">
         <v>16.399999999999999</v>
       </c>
+      <c r="F9">
+        <v>496</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="H9">
+        <v>2.9</v>
+      </c>
+      <c r="I9">
+        <v>0.43</v>
+      </c>
+      <c r="J9">
+        <v>0.67</v>
+      </c>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -830,13 +902,25 @@
       <c r="E10">
         <v>16</v>
       </c>
+      <c r="F10">
+        <v>496</v>
+      </c>
       <c r="G10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="H10">
+        <v>2.9</v>
+      </c>
+      <c r="I10">
+        <v>0.44</v>
+      </c>
+      <c r="J10">
+        <v>0.67</v>
+      </c>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -849,13 +933,25 @@
       <c r="E11">
         <v>14.9</v>
       </c>
+      <c r="F11">
+        <v>498</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="H11">
+        <v>2.7</v>
+      </c>
+      <c r="I11">
+        <v>0.44</v>
+      </c>
+      <c r="J11">
+        <v>0.66</v>
+      </c>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -868,13 +964,25 @@
       <c r="E12">
         <v>14.4</v>
       </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="H12">
+        <v>2.8</v>
+      </c>
+      <c r="I12">
+        <v>0.44</v>
+      </c>
+      <c r="J12">
+        <v>0.66</v>
+      </c>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -887,26 +995,34 @@
       <c r="E13" s="5">
         <v>13.3</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>508</v>
+      </c>
       <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="18"/>
+      <c r="H13" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="22"/>
       <c r="C14">
         <f>MIN(C4:C13)</f>
         <v>10.7</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:K14" si="0">MIN(D4:D13)</f>
+        <f t="shared" ref="D14:J14" si="0">MIN(D4:D13)</f>
         <v>114.7</v>
       </c>
       <c r="E14">
@@ -915,7 +1031,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -923,29 +1039,29 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="19"/>
+        <v>0.66</v>
+      </c>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="22"/>
       <c r="C15">
         <f>MAX(C4:C13)</f>
         <v>13.8</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:K15" si="1">MAX(D4:D13)</f>
+        <f t="shared" ref="D15:J15" si="1">MAX(D4:D13)</f>
         <v>132.30000000000001</v>
       </c>
       <c r="E15">
@@ -954,7 +1070,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1441</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
@@ -962,77 +1078,77 @@
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="17"/>
+        <v>0.7</v>
+      </c>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="13">
+      <c r="B16" s="18"/>
+      <c r="C16">
         <f>AVERAGE(C4:C13)</f>
         <v>11.82</v>
       </c>
-      <c r="D16" s="13">
-        <f t="shared" ref="D16:K16" si="2">AVERAGE(D4:D13)</f>
+      <c r="D16">
+        <f t="shared" ref="D16:J16" si="2">AVERAGE(D4:D13)</f>
         <v>124.27000000000001</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16">
         <f t="shared" si="2"/>
         <v>14.550000000000002</v>
       </c>
-      <c r="F16" s="13" t="e">
+      <c r="F16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="13">
+        <v>599.1</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
-      <c r="H16" s="13" t="e">
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="13" t="e">
+        <v>2.8099999999999996</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="13" t="e">
+        <v>0.438</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="17"/>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="23">
+      <c r="B17" s="18"/>
+      <c r="C17" s="15">
         <f>C14/C3</f>
         <v>1.1888888888888889</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="15">
         <f t="shared" ref="D17:J17" si="3">D14/D3</f>
         <v>6.7470588235294118</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="15">
         <f t="shared" si="3"/>
         <v>1.3199999999999998</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49.6</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="3"/>
@@ -1040,38 +1156,38 @@
       </c>
       <c r="H17" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.15882352941176472</v>
       </c>
       <c r="I17" s="23">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>I14/I3</f>
+        <v>3.3076923076923073E-2</v>
       </c>
       <c r="J17" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="20"/>
+        <v>3.8823529411764708E-2</v>
+      </c>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="23">
+      <c r="B18" s="18"/>
+      <c r="C18" s="15">
         <f>C15/C3</f>
         <v>1.5333333333333334</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="15">
         <f t="shared" ref="D18:J18" si="4">D15/D3</f>
         <v>7.7823529411764714</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="15">
         <f t="shared" si="4"/>
         <v>1.64</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>144.1</v>
       </c>
       <c r="G18" s="23">
         <f t="shared" si="4"/>
@@ -1079,56 +1195,56 @@
       </c>
       <c r="H18" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.17058823529411765</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4615384615384617E-2</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="21"/>
+        <v>4.1176470588235294E-2</v>
+      </c>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="24">
+      <c r="B19" s="20"/>
+      <c r="C19" s="16">
         <f>C16/C3</f>
         <v>1.3133333333333335</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="16">
         <f t="shared" ref="D19:J19" si="5">D16/D3</f>
         <v>7.3100000000000005</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="16">
         <f t="shared" si="5"/>
         <v>1.4550000000000003</v>
       </c>
-      <c r="F19" s="24" t="e">
+      <c r="F19" s="26">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>59.910000000000004</v>
       </c>
       <c r="G19" s="24">
         <f t="shared" si="5"/>
         <v>0.20400000000000001</v>
       </c>
-      <c r="H19" s="24" t="e">
+      <c r="H19" s="24">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="24" t="e">
+        <v>0.16529411764705881</v>
+      </c>
+      <c r="I19" s="24">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="24" t="e">
+        <v>3.3692307692307695E-2</v>
+      </c>
+      <c r="J19" s="24">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="22"/>
+        <v>3.9764705882352945E-2</v>
+      </c>
+      <c r="K19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
